--- a/src/Идентификаторы.xlsx
+++ b/src/Идентификаторы.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>patient 1</t>
   </si>
@@ -91,13 +91,19 @@
   </si>
   <si>
     <t>Биохимический анализ крови</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Данные по всем исследованиям</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +117,15 @@
       <color theme="1"/>
       <name val="Calibri Light"/>
       <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="major"/>
     </font>
   </fonts>
@@ -134,17 +149,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,180 +448,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="3.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E4" s="3">
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E5" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E6" s="3">
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D7" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E7" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D8" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E8" s="3">
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D9" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E9" s="3">
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D10" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E10" s="3">
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D11" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E11" s="3">
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D12" s="3">
         <v>9</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E12" s="3">
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D13" s="3">
         <v>10</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E13" s="3">
         <v>223</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
